--- a/poziom3-Iza.xlsx
+++ b/poziom3-Iza.xlsx
@@ -164,2027 +164,7 @@
     <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="294">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2601,8 +581,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -3062,10 +1042,10 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>9</v>
@@ -3414,7 +1394,7 @@
         <v>0,120,50,20,2,6</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3432,67 +1412,67 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0,300,50,20,2,6</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" ref="A45:A56" si="2">IF(B1 = "#","",C$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;B1)</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3510,13 +1490,13 @@
         <v>50,200,50,20,0,6</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3528,7 +1508,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3546,31 +1526,31 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" ref="A57:A68" si="3">IF(C1 = "#","",D$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;C1)</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>100,180,50,20,3,2</v>
@@ -3594,13 +1574,13 @@
         <v>100,240,50,20,0,6</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="3"/>
         <v>100,260,50,20,0,6</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3612,31 +1592,31 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" ref="A69:A80" si="4">IF(D1 = "#","",E$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;D1)</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="4"/>
         <v>150,160,50,20,0,0</v>
@@ -3648,7 +1628,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f t="shared" si="4"/>
         <v>150,200,50,20,11,0</v>
@@ -3669,16 +1649,16 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,260,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150,260,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f t="shared" si="4"/>
         <v>150,300,50,20,13,0</v>
@@ -3690,19 +1670,19 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f t="shared" ref="A81:A92" si="5">IF(E1 = "#","",F$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;E1)</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3738,10 +1718,10 @@
         <v>200,240,50,20,11,9</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,260,50,20,0,6</v>
+        <v>200,260,50,20,0,0</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -3750,31 +1730,31 @@
         <v>200,280,50,20,13,0</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>200,300,50,20,13,0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>200,320,50,20,6,1</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f t="shared" ref="A93:A104" si="6">IF(F1 = "#","",G$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;F1)</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3786,13 +1766,13 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f t="shared" si="6"/>
         <v>250,180,50,20,3,0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f t="shared" si="6"/>
         <v>250,200,50,20,0,6</v>
@@ -3822,19 +1802,19 @@
         <v>250,280,50,20,13,0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f t="shared" si="6"/>
         <v>250,300,50,20,13,0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f t="shared" si="6"/>
         <v>250,320,50,20,6,0</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f t="shared" ref="A105:A116" si="7">IF(G1 = "#","",H$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;G1)</f>
         <v/>
@@ -3846,7 +1826,7 @@
         <v>300,120,50,20,2,6</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3882,7 +1862,7 @@
         <v>300,240,50,20,7,0</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f t="shared" si="7"/>
         <v>300,260,50,20,7,0</v>
@@ -3894,37 +1874,37 @@
         <v>300,280,50,20,7,0</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f t="shared" si="7"/>
         <v>300,300,50,20,7,0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f t="shared" si="7"/>
         <v>300,320,50,20,6,0</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f t="shared" ref="A117:A128" si="8">IF(H1 = "#","",I$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;H1)</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3936,7 +1916,7 @@
         <v>350,180,50,20,3,0</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f t="shared" si="8"/>
         <v>350,200,50,20,0,6</v>
@@ -3954,7 +1934,7 @@
         <v>350,240,50,20,0,6</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f t="shared" si="8"/>
         <v>350,260,50,20,0,6</v>
@@ -3966,31 +1946,31 @@
         <v>350,280,50,20,13,0</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f t="shared" si="8"/>
         <v>350,300,50,20,13,0</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f t="shared" si="8"/>
         <v>350,320,50,20,6,0</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f t="shared" ref="A129:A140" si="9">IF(I1 = "#","",J$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;I1)</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -4002,13 +1982,13 @@
         <v>400,160,50,20,0,0</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f t="shared" si="9"/>
         <v>400,200,50,20,11,0</v>
@@ -4026,10 +2006,10 @@
         <v>400,240,50,20,11,9</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>400,260,50,20,0,6</v>
+        <v>400,260,50,20,0,0</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
@@ -4038,37 +2018,37 @@
         <v>400,280,50,20,13,0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f t="shared" si="9"/>
         <v>400,300,50,20,13,0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f t="shared" si="9"/>
         <v>400,320,50,20,6,1</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f t="shared" ref="A141:A152" si="10">IF(J1 = "#","",K$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;J1)</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>450,160,50,20,0,0</v>
@@ -4098,19 +2078,19 @@
         <v>450,240,50,20,11,0</v>
       </c>
     </row>
-    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>450,260,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+        <v>450,260,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>450,300,50,20,13,0</v>
@@ -4122,19 +2102,19 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f t="shared" ref="A153:A164" si="11">IF(K1 = "#","",L$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;K1)</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4146,13 +2126,13 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="str">
         <f t="shared" si="11"/>
         <v>500,180,50,20,3,2</v>
       </c>
     </row>
-    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="str">
         <f t="shared" si="11"/>
         <v>500,200,50,20,0,6</v>
@@ -4176,7 +2156,7 @@
         <v>500,260,50,20,0,6</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -4194,25 +2174,25 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
         <f t="shared" ref="A165:A176" si="12">IF(L1 = "#","",M$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;L1)</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4230,13 +2210,13 @@
         <v>550,200,50,20,0,6</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4248,7 +2228,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4266,13 +2246,13 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
         <f t="shared" ref="A177:A188" si="13">IF(M1 = "#","",N$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;M1)</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -4302,25 +2282,25 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -4338,25 +2318,25 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
         <f t="shared" ref="A189:A200" si="14">IF(N1 = "#","",O$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;N1)</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -4368,19 +2348,19 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -4392,67 +2372,67 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
         <v>650,300,50,20,2,6</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
         <f t="shared" ref="A201:A212" si="15">IF(O1 = "#","",P$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;O1)</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="str">
         <f t="shared" si="15"/>
         <v>700,180,50,20,2,0</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4464,7 +2444,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4482,19 +2462,19 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="str">
         <f t="shared" ref="A213:A224" si="16">IF(P1 = "#","",Q$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;P1)</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -4512,31 +2492,31 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -4548,7 +2528,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
